--- a/biology/Botanique/Forêt_nationale_de_Rogue_River-Siskiyou/Forêt_nationale_de_Rogue_River-Siskiyou.xlsx
+++ b/biology/Botanique/Forêt_nationale_de_Rogue_River-Siskiyou/Forêt_nationale_de_Rogue_River-Siskiyou.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_de_Rogue_River-Siskiyou</t>
+          <t>Forêt_nationale_de_Rogue_River-Siskiyou</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt nationale de Rogue River-Siskiyou est une forêt fédérale protégée qui s'étend sur les États de Californie et de l'Oregon (États-Unis). Elle est visitée par 915 000 touristes en 2006[5].
+La forêt nationale de Rogue River-Siskiyou est une forêt fédérale protégée qui s'étend sur les États de Californie et de l'Oregon (États-Unis). Elle est visitée par 915 000 touristes en 2006.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_nationale_de_Rogue_River-Siskiyou</t>
+          <t>Forêt_nationale_de_Rogue_River-Siskiyou</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Protection du territoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La forêt nationale de Rogue River-Siskiyou possède sept réserves intégrales, soit les réserves intégrales de Grassy Knob (69,61 km2)[6], de Kalmiopsis (727,44 km2)[7], des Red Buttes (80,69 km2)[8], de Rogue-Umpqua Divide (134,36 km2)[9], de Siskiyou (739,77 km2)[10], des Sky Lakes (470,65 km2)[11], de Wild Rogue (138,62 km2)[12].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt nationale de Rogue River-Siskiyou possède sept réserves intégrales, soit les réserves intégrales de Grassy Knob (69,61 km2), de Kalmiopsis (727,44 km2), des Red Buttes (80,69 km2), de Rogue-Umpqua Divide (134,36 km2), de Siskiyou (739,77 km2), des Sky Lakes (470,65 km2), de Wild Rogue (138,62 km2).
 </t>
         </is>
       </c>
